--- a/backend/sekolah/templates/template_kelas_tabel_D4DA6B98FCFD71C58F5A_2024.xlsx
+++ b/backend/sekolah/templates/template_kelas_tabel_D4DA6B98FCFD71C58F5A_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Nama</t>
   </si>
@@ -25,19 +25,13 @@
     <t>Tingkat Pendidikan</t>
   </si>
   <si>
-    <t>P</t>
+    <t>10</t>
   </si>
   <si>
     <t>Kurikulum</t>
   </si>
   <si>
-    <t>Kurikulum Teknik Komputer (k)</t>
-  </si>
-  <si>
-    <t>Jurusan</t>
-  </si>
-  <si>
-    <t>01/01/1980</t>
+    <t>SMK Merdeka Teknik Komputer dan Jaringan (k)</t>
   </si>
 </sst>
 </file>
@@ -84,13 +78,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="false">
-      <alignment/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -368,7 +359,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col customWidth="true" max="2" min="2" width="16"/>
-    <col customWidth="true" max="4" min="3" width="34"/>
+    <col customWidth="true" max="3" min="3" width="30"/>
   </cols>
   <sheetData>
     <row r="1" ht="50" customHeight="true">
@@ -381,9 +372,6 @@
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -395,308 +383,11 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4">
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5">
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6">
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7">
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8">
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9">
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10">
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11">
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12">
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13">
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14">
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15">
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17">
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18">
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19">
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20">
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21">
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22">
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23">
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24">
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25">
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26">
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27">
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28">
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29">
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30">
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31">
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32">
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33">
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34">
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35">
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36">
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37">
-      <c r="D37" s="2"/>
-    </row>
-    <row r="38">
-      <c r="D38" s="2"/>
-    </row>
-    <row r="39">
-      <c r="D39" s="2"/>
-    </row>
-    <row r="40">
-      <c r="D40" s="2"/>
-    </row>
-    <row r="41">
-      <c r="D41" s="2"/>
-    </row>
-    <row r="42">
-      <c r="D42" s="2"/>
-    </row>
-    <row r="43">
-      <c r="D43" s="2"/>
-    </row>
-    <row r="44">
-      <c r="D44" s="2"/>
-    </row>
-    <row r="45">
-      <c r="D45" s="2"/>
-    </row>
-    <row r="46">
-      <c r="D46" s="2"/>
-    </row>
-    <row r="47">
-      <c r="D47" s="2"/>
-    </row>
-    <row r="48">
-      <c r="D48" s="2"/>
-    </row>
-    <row r="49">
-      <c r="D49" s="2"/>
-    </row>
-    <row r="50">
-      <c r="D50" s="2"/>
-    </row>
-    <row r="51">
-      <c r="D51" s="2"/>
-    </row>
-    <row r="52">
-      <c r="D52" s="2"/>
-    </row>
-    <row r="53">
-      <c r="D53" s="2"/>
-    </row>
-    <row r="54">
-      <c r="D54" s="2"/>
-    </row>
-    <row r="55">
-      <c r="D55" s="2"/>
-    </row>
-    <row r="56">
-      <c r="D56" s="2"/>
-    </row>
-    <row r="57">
-      <c r="D57" s="2"/>
-    </row>
-    <row r="58">
-      <c r="D58" s="2"/>
-    </row>
-    <row r="59">
-      <c r="D59" s="2"/>
-    </row>
-    <row r="60">
-      <c r="D60" s="2"/>
-    </row>
-    <row r="61">
-      <c r="D61" s="2"/>
-    </row>
-    <row r="62">
-      <c r="D62" s="2"/>
-    </row>
-    <row r="63">
-      <c r="D63" s="2"/>
-    </row>
-    <row r="64">
-      <c r="D64" s="2"/>
-    </row>
-    <row r="65">
-      <c r="D65" s="2"/>
-    </row>
-    <row r="66">
-      <c r="D66" s="2"/>
-    </row>
-    <row r="67">
-      <c r="D67" s="2"/>
-    </row>
-    <row r="68">
-      <c r="D68" s="2"/>
-    </row>
-    <row r="69">
-      <c r="D69" s="2"/>
-    </row>
-    <row r="70">
-      <c r="D70" s="2"/>
-    </row>
-    <row r="71">
-      <c r="D71" s="2"/>
-    </row>
-    <row r="72">
-      <c r="D72" s="2"/>
-    </row>
-    <row r="73">
-      <c r="D73" s="2"/>
-    </row>
-    <row r="74">
-      <c r="D74" s="2"/>
-    </row>
-    <row r="75">
-      <c r="D75" s="2"/>
-    </row>
-    <row r="76">
-      <c r="D76" s="2"/>
-    </row>
-    <row r="77">
-      <c r="D77" s="2"/>
-    </row>
-    <row r="78">
-      <c r="D78" s="2"/>
-    </row>
-    <row r="79">
-      <c r="D79" s="2"/>
-    </row>
-    <row r="80">
-      <c r="D80" s="2"/>
-    </row>
-    <row r="81">
-      <c r="D81" s="2"/>
-    </row>
-    <row r="82">
-      <c r="D82" s="2"/>
-    </row>
-    <row r="83">
-      <c r="D83" s="2"/>
-    </row>
-    <row r="84">
-      <c r="D84" s="2"/>
-    </row>
-    <row r="85">
-      <c r="D85" s="2"/>
-    </row>
-    <row r="86">
-      <c r="D86" s="2"/>
-    </row>
-    <row r="87">
-      <c r="D87" s="2"/>
-    </row>
-    <row r="88">
-      <c r="D88" s="2"/>
-    </row>
-    <row r="89">
-      <c r="D89" s="2"/>
-    </row>
-    <row r="90">
-      <c r="D90" s="2"/>
-    </row>
-    <row r="91">
-      <c r="D91" s="2"/>
-    </row>
-    <row r="92">
-      <c r="D92" s="2"/>
-    </row>
-    <row r="93">
-      <c r="D93" s="2"/>
-    </row>
-    <row r="94">
-      <c r="D94" s="2"/>
-    </row>
-    <row r="95">
-      <c r="D95" s="2"/>
-    </row>
-    <row r="96">
-      <c r="D96" s="2"/>
-    </row>
-    <row r="97">
-      <c r="D97" s="2"/>
-    </row>
-    <row r="98">
-      <c r="D98" s="2"/>
-    </row>
-    <row r="99">
-      <c r="D99" s="2"/>
-    </row>
-    <row r="100">
-      <c r="D100" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="false" error="Isi hanya L atau P" errorTitle="Input JK Salah!" prompt="Isi L atau P" promptTitle="Input Jk" showDropDown="true" showErrorMessage="true" showInputMessage="true" sqref="B2:B1048576" type="list">
-      <formula1>"L,P"</formula1>
+    <dataValidation allowBlank="false" error="Isi sesuai dengan kurikulum yang digunakan" errorTitle="Input Kurikulum Salah!" prompt="Isi sesuai dengan kurikulum yang digunakan" promptTitle="Input kurikulum" showDropDown="true" showErrorMessage="true" showInputMessage="true" sqref="C2:C1048576" type="list">
+      <formula1>"KurikulumList"</formula1>
     </dataValidation>
   </dataValidations>
 </worksheet>

--- a/backend/sekolah/templates/template_kelas_tabel_D4DA6B98FCFD71C58F5A_2024.xlsx
+++ b/backend/sekolah/templates/template_kelas_tabel_D4DA6B98FCFD71C58F5A_2024.xlsx
@@ -28,10 +28,10 @@
     <t>10</t>
   </si>
   <si>
-    <t>Kurikulum</t>
-  </si>
-  <si>
-    <t>SMK Merdeka Teknik Komputer dan Jaringan (k)</t>
+    <t>Jurusan Id</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -385,10 +385,5 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation allowBlank="false" error="Isi sesuai dengan kurikulum yang digunakan" errorTitle="Input Kurikulum Salah!" prompt="Isi sesuai dengan kurikulum yang digunakan" promptTitle="Input kurikulum" showDropDown="true" showErrorMessage="true" showInputMessage="true" sqref="C2:C1048576" type="list">
-      <formula1>"KurikulumList"</formula1>
-    </dataValidation>
-  </dataValidations>
 </worksheet>
 </file>